--- a/Spotify_Analysis/reports/spotify_report.xlsx
+++ b/Spotify_Analysis/reports/spotify_report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b755b0f552a89887/Data_Science/Spotify_Analysis/reports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emili\Downloads\Data_Science\data-analysis-portfolio\Spotify_Analysis\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{765BCACE-F04E-4D72-BABA-25E708049F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3EA2D52-470A-4225-B920-DD499168B9FB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B08F258-5D66-48E6-9B2F-23AE61460E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{F2302BD5-2E37-493E-B923-95B3B59F9117}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="624">
   <si>
     <t>Projeto</t>
   </si>
@@ -1690,12 +1690,6 @@
     <t>_</t>
   </si>
   <si>
-    <t>Popularidade Máxima</t>
-  </si>
-  <si>
-    <t>Popularidade Mínima</t>
-  </si>
-  <si>
     <t>Média da duração das músicas</t>
   </si>
   <si>
@@ -1717,24 +1711,9 @@
     <t>Total de Colunas_DF_Modificado</t>
   </si>
   <si>
-    <t>Música mais antiga</t>
-  </si>
-  <si>
     <t>INSIGHTS</t>
   </si>
   <si>
-    <t>Música com maior duração de tempo</t>
-  </si>
-  <si>
-    <t>Música com menor duração de tempo</t>
-  </si>
-  <si>
-    <t>Música mais recente</t>
-  </si>
-  <si>
-    <t>Música mais popular</t>
-  </si>
-  <si>
     <t>Álbuns com os maiores números de faixas</t>
   </si>
   <si>
@@ -1750,9 +1729,6 @@
     <t xml:space="preserve"> release_date</t>
   </si>
   <si>
-    <t xml:space="preserve"> popularity</t>
-  </si>
-  <si>
     <t xml:space="preserve">Song 3 </t>
   </si>
   <si>
@@ -1775,13 +1751,184 @@
   </si>
   <si>
     <t>spotify_analysis.ipynb, spotify_report.xlsx, spotify_analysis_dataset.csv</t>
+  </si>
+  <si>
+    <t>Faixa mais popular</t>
+  </si>
+  <si>
+    <t>Faixa menos popular</t>
+  </si>
+  <si>
+    <t>Song  21</t>
+  </si>
+  <si>
+    <t>Song  20</t>
+  </si>
+  <si>
+    <t>Média da Popularidade</t>
+  </si>
+  <si>
+    <t>50.3</t>
+  </si>
+  <si>
+    <t>Média(danceability)</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>Média(energy)</t>
+  </si>
+  <si>
+    <t>Média(loudness)</t>
+  </si>
+  <si>
+    <t>Média(speechiness)</t>
+  </si>
+  <si>
+    <t>Média(acousticness)</t>
+  </si>
+  <si>
+    <t>Média(instrumentalness)</t>
+  </si>
+  <si>
+    <t>Média(liveness)</t>
+  </si>
+  <si>
+    <t>Média(valence)</t>
+  </si>
+  <si>
+    <t>Outlier</t>
+  </si>
+  <si>
+    <t>126.1</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>Faixa mais recente</t>
+  </si>
+  <si>
+    <t>Faixa mais antiga</t>
+  </si>
+  <si>
+    <t>Tempo médio (BPM)</t>
+  </si>
+  <si>
+    <t>Faixa com maior duração de tempo</t>
+  </si>
+  <si>
+    <t>Faixa com menor duração de tempo</t>
+  </si>
+  <si>
+    <t>Correlação(liveness, acousticness)</t>
+  </si>
+  <si>
+    <t>liveness, acousticness</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>Correlação(loudness, acousticness)</t>
+  </si>
+  <si>
+    <t>Correlação(loudness, instrumentalness)</t>
+  </si>
+  <si>
+    <t>Correlação(acousticness,  instrumentalness)</t>
+  </si>
+  <si>
+    <t>loudness, acousticness</t>
+  </si>
+  <si>
+    <t>loudness, instrumentalness</t>
+  </si>
+  <si>
+    <t>acousticness,  instrumentalness</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>artist, track_id</t>
+  </si>
+  <si>
+    <t>Correlação(artist, track_id)</t>
+  </si>
+  <si>
+    <t>Correlação(popularity, danceability)</t>
+  </si>
+  <si>
+    <t>popularity, danceability</t>
+  </si>
+  <si>
+    <t>Correlação(popularity, energy)</t>
+  </si>
+  <si>
+    <t>popularity, energy</t>
+  </si>
+  <si>
+    <t>Correlação(popularity, valence)</t>
+  </si>
+  <si>
+    <t>Correlação(popularity, tempo)</t>
+  </si>
+  <si>
+    <t>popularity, valence</t>
+  </si>
+  <si>
+    <t>popularity, tempo</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>Correlação(danceability, energy)</t>
+  </si>
+  <si>
+    <t>Correlação(danceability, valence)</t>
+  </si>
+  <si>
+    <t>Correlação(danceability, tempo)</t>
+  </si>
+  <si>
+    <t>danceability, energy</t>
+  </si>
+  <si>
+    <t>danceability, valence</t>
+  </si>
+  <si>
+    <t>danceability, tempo</t>
+  </si>
+  <si>
+    <t>Correlação(energy, valence)</t>
+  </si>
+  <si>
+    <t>Correlação(energy, tempo)</t>
+  </si>
+  <si>
+    <t>Correlação(valence, tempo)</t>
+  </si>
+  <si>
+    <t>energy, valence</t>
+  </si>
+  <si>
+    <t>energy, tempo</t>
+  </si>
+  <si>
+    <t>valence, tempo</t>
+  </si>
+  <si>
+    <t>0.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1800,19 +1947,6 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1857,9 +1991,7 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1870,6 +2002,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2219,51 +2357,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>572</v>
+      <c r="A1" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>574</v>
+      <c r="B6" s="8" t="s">
+        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -4850,10 +4988,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938504A6-899E-499D-88BD-D5C61E6E4462}">
-  <dimension ref="A1:C12"/>
+  <sheetPr codeName="Planilha1"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4861,33 +5000,40 @@
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D1" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>545</v>
       </c>
       <c r="C2" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>545</v>
@@ -4895,10 +5041,13 @@
       <c r="C3" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D3" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>545</v>
@@ -4906,9 +5055,12 @@
       <c r="C4" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>542</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -4917,9 +5069,12 @@
       <c r="C5" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>543</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -4928,9 +5083,12 @@
       <c r="C6" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>544</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -4939,10 +5097,13 @@
       <c r="C7" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>546</v>
+      <c r="D7" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>567</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
@@ -4950,10 +5111,13 @@
       <c r="C8" s="2">
         <v>96</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>547</v>
+      <c r="D8" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>568</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
@@ -4961,27 +5125,233 @@
       <c r="C9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="D9" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C11" s="5">
         <v>0.14722222222222223</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="D11" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="2">
+        <v>-17.7</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C21" s="7">
+        <v>40228</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="C22" s="7">
+        <v>40179</v>
+      </c>
+      <c r="D22" s="7">
+        <v>40179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.2076388888888889</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="5">
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>560</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -4991,10 +5361,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC5F65D-5E87-42F4-AD11-1169ECCBFB40}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5005,23 +5375,23 @@
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="D1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>563</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>571</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>11</v>
@@ -5032,107 +5402,276 @@
       <c r="D2" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>557</v>
+        <v>602</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.2076388888888889</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>603</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>558</v>
+        <v>604</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>568</v>
-      </c>
-      <c r="D4" s="5">
-        <v>8.8888888888888892E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>564</v>
+        <v>606</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>608</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="D5" s="9">
-        <v>40228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>565</v>
+        <v>607</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>609</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="9">
-        <v>40179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>566</v>
+        <v>611</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>614</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D7" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>569</v>
-      </c>
-      <c r="B8" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-0.3</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D16" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C19" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="D19" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
